--- a/Ruby/loadexcel/Data.xlsx
+++ b/Ruby/loadexcel/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>sz001</t>
   </si>
@@ -56,19 +56,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>实际</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shd3</t>
+    <t>Email格式错误，请重新输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,13 +397,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -414,12 +414,9 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -434,11 +431,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(C2=D2,"P","F")</f>
-        <v>F</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -452,11 +448,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">IF(C3=D3,"P","F")</f>
-        <v>P</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -470,11 +465,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -488,11 +482,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/loadexcel/Data.xlsx
+++ b/Ruby/loadexcel/Data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>sz001</t>
   </si>
@@ -64,11 +65,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctl00_holderLeft_txt_email</t>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Email格式错误，请重新输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctl00_holderLeft_txt_userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,10 +455,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -448,10 +472,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -465,10 +489,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -482,10 +506,55 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/loadexcel/Data.xlsx
+++ b/Ruby/loadexcel/Data.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,19 +88,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ctl00_holderLeft_txt_userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctl00_holderLeft_txt_userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,13 +424,13 @@
       <selection activeCell="D2" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -444,7 +444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,10 +458,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,10 +475,10 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -492,10 +492,10 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -527,13 +527,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -549,9 +549,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>

--- a/Ruby/loadexcel/Data.xlsx
+++ b/Ruby/loadexcel/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>sz001</t>
   </si>
@@ -84,15 +84,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Email格式错误，请重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ctl00_holderLeft_txt_userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
+    <t>输入符合规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入符合规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -472,10 +480,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -489,10 +497,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -506,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -551,7 +559,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>

--- a/Ruby/loadexcel/Data.xlsx
+++ b/Ruby/loadexcel/Data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>sz001</t>
   </si>
@@ -89,19 +90,6 @@
   </si>
   <si>
     <t>输入符合规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入符合规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,7 +414,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E5"/>
@@ -434,17 +468,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -452,72 +485,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -527,47 +524,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ruby/loadexcel/Data.xlsx
+++ b/Ruby/loadexcel/Data.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>sz001</t>
   </si>
@@ -64,19 +66,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Email格式错误，请重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctl00_holderLeft_txt_email</t>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctl00_holderLeft_txt_userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入符合规则</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,98 +414,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -493,4 +456,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>